--- a/Dokumente/Skizzen/Verifikation/Auswertung-Fragebogen.xlsx
+++ b/Dokumente/Skizzen/Verifikation/Auswertung-Fragebogen.xlsx
@@ -128,14 +128,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8CD444"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -168,7 +176,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -178,7 +186,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE">
+              <a:rPr lang="de-DE" sz="1800">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -188,7 +196,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46057131954466723"/>
+          <c:y val="3.2587851773457695E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -202,7 +217,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -222,10 +237,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.53694412118820489"/>
-          <c:y val="0.21187652041875638"/>
-          <c:w val="0.44505434060424981"/>
-          <c:h val="0.64250379184441198"/>
+          <c:x val="0.50743612598040522"/>
+          <c:y val="0.21764693471766602"/>
+          <c:w val="0.47943143706911812"/>
+          <c:h val="0.66408859948848831"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -286,19 +301,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,7 +379,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -386,18 +401,18 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="117789536"/>
-        <c:axId val="117788416"/>
+        <c:axId val="177568912"/>
+        <c:axId val="177569472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117789536"/>
+        <c:axId val="177568912"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -414,11 +429,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -433,15 +448,17 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117788416"/>
+        <c:crossAx val="177569472"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117788416"/>
+        <c:axId val="177569472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +494,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -492,7 +509,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117789536"/>
+        <c:crossAx val="177568912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -521,7 +538,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -595,12 +612,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -628,12 +642,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -646,7 +657,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50522810997047074"/>
+          <c:y val="0.21615025343601199"/>
+          <c:w val="0.47179054503752699"/>
+          <c:h val="0.67616086092411753"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -724,9 +745,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -783,66 +802,6 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$A$20:$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Ich kann mir sehr gut vorstellen das Assistenzsystem regelmäßig zu nutzen.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ich empfinde das Assistenzsystem als einfach zu nutzen.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ich finde, dass die verschiedenen Funktionen des Assistenzsystems gut integriert sind.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ich kann mir gut vorstellen, dass die meisten Leute das System schnell zu beherrschen lernen.</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ich habe mich bei der Nutzung des Assistenzsystems sehr sicher gefühlt.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$D$20:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
@@ -876,30 +835,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$20:$E$24</c:f>
+              <c:f>Tabelle1!$D$20:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$F$19</c:f>
+              <c:f>Tabelle1!$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -939,15 +895,84 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Tabelle1!$E$20:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$20:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ich kann mir sehr gut vorstellen das Assistenzsystem regelmäßig zu nutzen.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ich empfinde das Assistenzsystem als einfach zu nutzen.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ich finde, dass die verschiedenen Funktionen des Assistenzsystems gut integriert sind.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ich kann mir gut vorstellen, dass die meisten Leute das System schnell zu beherrschen lernen.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ich habe mich bei der Nutzung des Assistenzsystems sehr sicher gefühlt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Tabelle1!$F$20:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,11 +988,600 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="317266112"/>
-        <c:axId val="317264992"/>
+        <c:axId val="178843872"/>
+        <c:axId val="178844432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317266112"/>
+        <c:axId val="178843872"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178844432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178844432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178843872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41856300756162806"/>
+          <c:y val="0.90227616658915422"/>
+          <c:w val="0.15742624967613858"/>
+          <c:h val="8.1771228975456536E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Negative Aussagen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.51078519340086359"/>
+          <c:y val="0.15302901979359468"/>
+          <c:w val="0.46729892032756482"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$27:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ich empfinde das Assistenzsystem als unnötig komplex.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ich denke, dass ich technischen Support brauchen würde, um das Assistenzsystem zu nutzen.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ich finde, dass es im Assistenzsystem zu viele Inkonsistenzen gibt.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ich empfinde die Bedienung als sehr umständlich.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ich musste eine Menge Dinge lernen, bevor ich mit dem Assistenzsystem arbeiten konnte.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$27:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$27:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ich empfinde das Assistenzsystem als unnötig komplex.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ich denke, dass ich technischen Support brauchen würde, um das Assistenzsystem zu nutzen.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ich finde, dass es im Assistenzsystem zu viele Inkonsistenzen gibt.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ich empfinde die Bedienung als sehr umständlich.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ich musste eine Menge Dinge lernen, bevor ich mit dem Assistenzsystem arbeiten konnte.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$27:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$27:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ich empfinde das Assistenzsystem als unnötig komplex.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ich denke, dass ich technischen Support brauchen würde, um das Assistenzsystem zu nutzen.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ich finde, dass es im Assistenzsystem zu viele Inkonsistenzen gibt.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ich empfinde die Bedienung als sehr umständlich.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ich musste eine Menge Dinge lernen, bevor ich mit dem Assistenzsystem arbeiten konnte.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$27:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$27:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ich empfinde das Assistenzsystem als unnötig komplex.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ich denke, dass ich technischen Support brauchen würde, um das Assistenzsystem zu nutzen.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ich finde, dass es im Assistenzsystem zu viele Inkonsistenzen gibt.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ich empfinde die Bedienung als sehr umständlich.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ich musste eine Menge Dinge lernen, bevor ich mit dem Assistenzsystem arbeiten konnte.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$27:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$27:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ich empfinde das Assistenzsystem als unnötig komplex.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ich denke, dass ich technischen Support brauchen würde, um das Assistenzsystem zu nutzen.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ich finde, dass es im Assistenzsystem zu viele Inkonsistenzen gibt.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ich empfinde die Bedienung als sehr umständlich.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ich musste eine Menge Dinge lernen, bevor ich mit dem Assistenzsystem arbeiten konnte.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$27:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="178849472"/>
+        <c:axId val="178850032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="178849472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,12 +1609,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1010,7 +1621,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317264992"/>
+        <c:crossAx val="178850032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1018,7 +1629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317264992"/>
+        <c:axId val="178850032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,12 +1665,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1069,7 +1677,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317266112"/>
+        <c:crossAx val="178849472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1098,12 +1706,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1138,584 +1743,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Negative Aussagen</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$A$27:$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Ich empfinde das Assistenzsystem als unnötig komplex.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ich denke, dass ich technischen Support brauchen würde, um das Assistenzsystem zu nutzen.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ich finde, dass es im Assistenzsystem zu viele Inkonsistenzen gibt.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ich empfinde die Bedienung als sehr umständlich.</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ich musste eine Menge Dinge lernen, bevor ich mit dem Assistenzsystem arbeiten konnte.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$B$27:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$C$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$A$27:$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Ich empfinde das Assistenzsystem als unnötig komplex.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ich denke, dass ich technischen Support brauchen würde, um das Assistenzsystem zu nutzen.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ich finde, dass es im Assistenzsystem zu viele Inkonsistenzen gibt.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ich empfinde die Bedienung als sehr umständlich.</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ich musste eine Menge Dinge lernen, bevor ich mit dem Assistenzsystem arbeiten konnte.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$C$27:$C$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$D$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$A$27:$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Ich empfinde das Assistenzsystem als unnötig komplex.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ich denke, dass ich technischen Support brauchen würde, um das Assistenzsystem zu nutzen.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ich finde, dass es im Assistenzsystem zu viele Inkonsistenzen gibt.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ich empfinde die Bedienung als sehr umständlich.</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ich musste eine Menge Dinge lernen, bevor ich mit dem Assistenzsystem arbeiten konnte.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$D$27:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$E$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$A$27:$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Ich empfinde das Assistenzsystem als unnötig komplex.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ich denke, dass ich technischen Support brauchen würde, um das Assistenzsystem zu nutzen.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ich finde, dass es im Assistenzsystem zu viele Inkonsistenzen gibt.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ich empfinde die Bedienung als sehr umständlich.</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ich musste eine Menge Dinge lernen, bevor ich mit dem Assistenzsystem arbeiten konnte.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$E$27:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$F$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$A$27:$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Ich empfinde das Assistenzsystem als unnötig komplex.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ich denke, dass ich technischen Support brauchen würde, um das Assistenzsystem zu nutzen.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ich finde, dass es im Assistenzsystem zu viele Inkonsistenzen gibt.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ich empfinde die Bedienung als sehr umständlich.</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ich musste eine Menge Dinge lernen, bevor ich mit dem Assistenzsystem arbeiten konnte.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$F$27:$F$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="237469200"/>
-        <c:axId val="237472000"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="237469200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="237472000"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="237472000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="237469200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -3367,16 +3399,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>27691</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>760877</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>173690</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3397,21 +3429,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>129147</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>14847</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Diagramm 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3427,16 +3461,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2240</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3455,6 +3489,55 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1066800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Textfeld 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11868150" y="4114800"/>
+          <a:ext cx="1066800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3723,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3746,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3757,7 +3840,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3771,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3779,7 +3862,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3790,7 +3873,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3825,63 +3908,69 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
       <c r="G20">
         <f>SUM(B19*B20,C19*C20,D19*D20,E19*E20,F19*F20)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
         <f>SUM(B19*B21,C19*C21,D19*D21,E19*E21,F19*F21)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <f>SUM(B19*B22,C19*C22,D19*D22,E19*E22,F19*F22)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <f>SUM(B19*B23,C19*C23,D19*D23,E19*E23,F19*F23)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <f>SUM(B19*B24,C19*C24,D19*D24,E19*E24,F19*F24)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3906,35 +3995,41 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <f>SUM(B26*B27,C26*C27,D26*D27,E26*E27,F26*F27)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="G28">
         <f>SUM(B26*B28,C26*C28,D26*D28,E26*E28,F26*F28)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="G29">
         <f>SUM(B26*B29,C26*C29,D26*D29,E26*E29,F26*F29)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3942,11 +4037,11 @@
         <v>15</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <f>SUM(B26*B30,C26*C30,D26*D30,E26*E30,F26*F30)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3954,11 +4049,11 @@
         <v>18</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <f>SUM(B26*B31,C26*C31,D26*D31,E26*E31,F26*F31)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3966,7 +4061,7 @@
         <v>20</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.25">
@@ -3975,11 +4070,11 @@
       </c>
       <c r="G33">
         <f>SUM(G20:G31)</f>
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="H33">
         <f xml:space="preserve"> (G33/H32)</f>
-        <v>31</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="34" spans="6:8" x14ac:dyDescent="0.25">
@@ -3988,7 +4083,7 @@
       </c>
       <c r="H34">
         <f xml:space="preserve"> (H33*2.5)</f>
-        <v>77.5</v>
+        <v>83.75</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Skizzen/Verifikation/Auswertung-Fragebogen.xlsx
+++ b/Dokumente/Skizzen/Verifikation/Auswertung-Fragebogen.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meret Feldkamper\Documents\Diplomarbeit\Diplomarbeit\Dokumente\Skizzen\Verifikation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Meret/Documents/Uni/TU_Dresden/Diplomarbeit/Dokumente/Skizzen/Verifikation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6394B52-4C1A-624A-A104-C21B0BA7CCFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -98,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,7 +162,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -318,6 +324,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D57D-9F4A-ABA2-E10629D21205}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -390,6 +401,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D57D-9F4A-ABA2-E10629D21205}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -429,7 +445,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -524,7 +540,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -592,7 +607,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -628,7 +643,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -728,6 +742,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F680-084F-B86F-7B69DAABA241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -785,6 +804,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F680-084F-B86F-7B69DAABA241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -845,6 +869,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F680-084F-B86F-7B69DAABA241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -911,6 +940,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F680-084F-B86F-7B69DAABA241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -977,6 +1011,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F680-084F-B86F-7B69DAABA241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1181,7 +1220,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1217,7 +1256,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1332,6 +1370,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C5E-D542-BE21-DA1AD8397983}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1389,6 +1432,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C5E-D542-BE21-DA1AD8397983}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1449,6 +1497,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C5E-D542-BE21-DA1AD8397983}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1509,6 +1562,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2C5E-D542-BE21-DA1AD8397983}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1566,6 +1624,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2C5E-D542-BE21-DA1AD8397983}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1692,7 +1755,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3399,20 +3461,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>760877</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40607</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>173690</xdr:colOff>
+      <xdr:colOff>300691</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3442,7 +3510,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3474,7 +3548,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3499,7 +3579,13 @@
     <xdr:ext cx="1066800" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Textfeld 4"/>
+        <xdr:cNvPr id="5" name="Textfeld 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3803,20 +3889,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="83.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="83.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -3824,7 +3910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3835,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3846,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3857,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3868,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3879,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -3890,7 +3976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0</v>
       </c>
@@ -3907,7 +3993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -3922,7 +4008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -3937,7 +4023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -3949,7 +4035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -3961,7 +4047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -3973,7 +4059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>4</v>
       </c>
@@ -3990,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4002,7 +4088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -4017,7 +4103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -4032,7 +4118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -4044,7 +4130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -4056,7 +4142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
         <v>20</v>
       </c>
@@ -4064,7 +4150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
         <v>21</v>
       </c>
@@ -4077,7 +4163,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
         <v>19</v>
       </c>
@@ -4088,6 +4174,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumente/Skizzen/Verifikation/Auswertung-Fragebogen.xlsx
+++ b/Dokumente/Skizzen/Verifikation/Auswertung-Fragebogen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Meret/Documents/Uni/TU_Dresden/Diplomarbeit/Dokumente/Skizzen/Verifikation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6394B52-4C1A-624A-A104-C21B0BA7CCFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA15C01-EEED-0147-92D1-DAE47FCA53FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>Ich finde, dass es im Assistenzsystem zu viele Inkonsistenzen gibt.</t>
   </si>
   <si>
-    <t>Ich kann mir gut vorstellen, dass die meisten Leute das System schnell zu beherrschen lernen.</t>
-  </si>
-  <si>
     <t>Ich empfinde die Bedienung als sehr umständlich.</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Ich habe Erfahrung im Betrieb von verfahrenstechnischen Anlagen.</t>
+  </si>
+  <si>
+    <t>Ich kann mir gut vorstellen, dass die meisten Leute das Assistenzsystem schnell zu beherrschen lernen.</t>
   </si>
 </sst>
 </file>
@@ -307,19 +307,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,7 +390,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -725,7 +725,7 @@
                   <c:v>Ich finde, dass die verschiedenen Funktionen des Assistenzsystems gut integriert sind.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Ich kann mir gut vorstellen, dass die meisten Leute das System schnell zu beherrschen lernen.</c:v>
+                  <c:v>Ich kann mir gut vorstellen, dass die meisten Leute das Assistenzsystem schnell zu beherrschen lernen.</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Ich habe mich bei der Nutzung des Assistenzsystems sehr sicher gefühlt.</c:v>
@@ -787,7 +787,7 @@
                   <c:v>Ich finde, dass die verschiedenen Funktionen des Assistenzsystems gut integriert sind.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Ich kann mir gut vorstellen, dass die meisten Leute das System schnell zu beherrschen lernen.</c:v>
+                  <c:v>Ich kann mir gut vorstellen, dass die meisten Leute das Assistenzsystem schnell zu beherrschen lernen.</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Ich habe mich bei der Nutzung des Assistenzsystems sehr sicher gefühlt.</c:v>
@@ -801,6 +801,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -849,7 +855,7 @@
                   <c:v>Ich finde, dass die verschiedenen Funktionen des Assistenzsystems gut integriert sind.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Ich kann mir gut vorstellen, dass die meisten Leute das System schnell zu beherrschen lernen.</c:v>
+                  <c:v>Ich kann mir gut vorstellen, dass die meisten Leute das Assistenzsystem schnell zu beherrschen lernen.</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Ich habe mich bei der Nutzung des Assistenzsystems sehr sicher gefühlt.</c:v>
@@ -863,6 +869,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
@@ -914,7 +923,7 @@
                   <c:v>Ich finde, dass die verschiedenen Funktionen des Assistenzsystems gut integriert sind.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Ich kann mir gut vorstellen, dass die meisten Leute das System schnell zu beherrschen lernen.</c:v>
+                  <c:v>Ich kann mir gut vorstellen, dass die meisten Leute das Assistenzsystem schnell zu beherrschen lernen.</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Ich habe mich bei der Nutzung des Assistenzsystems sehr sicher gefühlt.</c:v>
@@ -929,13 +938,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,7 +997,7 @@
                   <c:v>Ich finde, dass die verschiedenen Funktionen des Assistenzsystems gut integriert sind.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Ich kann mir gut vorstellen, dass die meisten Leute das System schnell zu beherrschen lernen.</c:v>
+                  <c:v>Ich kann mir gut vorstellen, dass die meisten Leute das Assistenzsystem schnell zu beherrschen lernen.</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Ich habe mich bei der Nutzung des Assistenzsystems sehr sicher gefühlt.</c:v>
@@ -1359,7 +1371,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -1429,6 +1441,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1557,6 +1578,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3892,8 +3916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="A19:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3915,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3926,7 +3950,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3934,13 +3958,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3948,7 +3972,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3959,7 +3983,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3973,7 +3997,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3998,20 +4022,23 @@
         <v>6</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
         <f>SUM(B19*B20,C19*C20,D19*D20,E19*E20,F19*F20)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="E21">
         <v>1</v>
       </c>
@@ -4020,43 +4047,52 @@
       </c>
       <c r="G21">
         <f>SUM(B19*B21,C19*C21,D19*D21,E19*E21,F19*F21)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="G22">
         <f>SUM(B19*B22,C19*C22,D19*D22,E19*E22,F19*F22)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23">
         <f>SUM(B19*B23,C19*C23,D19*D23,E19*E23,F19*F23)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="G24">
         <f>SUM(B19*B24,C19*C24,D19*D24,E19*E24,F19*F24)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4083,9 +4119,12 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="G27">
         <f>SUM(B26*B27,C26*C27,D26*D27,E26*E27,F26*F27)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -4095,12 +4134,15 @@
       <c r="B28">
         <v>1</v>
       </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="G28">
         <f>SUM(B26*B28,C26*C28,D26*D28,E26*E28,F26*F28)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -4108,68 +4150,74 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="G29">
         <f>SUM(B26*B29,C26*C29,D26*D29,E26*E29,F26*F29)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="G30">
         <f>SUM(B26*B30,C26*C30,D26*D30,E26*E30,F26*F30)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
       <c r="G31">
         <f>SUM(B26*B31,C26*C31,D26*D31,E26*E31,F26*F31)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G33">
         <f>SUM(G20:G31)</f>
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H33">
         <f xml:space="preserve"> (G33/H32)</f>
-        <v>33.5</v>
+        <v>30.333333333333332</v>
       </c>
     </row>
     <row r="34" spans="6:8" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34">
         <f xml:space="preserve"> (H33*2.5)</f>
-        <v>83.75</v>
+        <v>75.833333333333329</v>
       </c>
     </row>
   </sheetData>
